--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7854,7 +7854,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10758,7 +10758,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12210,7 +12210,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4054,7 +4054,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4774" uniqueCount="610">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cde-tobacco-smoking-status-yes-or-no</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-tobacco-smoking-status-yes-or-no</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -603,6 +603,9 @@
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>draft</t>
   </si>
   <si>
     <t>required</t>
@@ -3899,7 +3902,7 @@
         <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>82</v>
@@ -3914,13 +3917,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3953,19 +3956,19 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3973,10 +3976,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3984,7 +3987,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3999,19 +4002,19 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -4039,28 +4042,28 @@
         <v>119</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4081,13 +4084,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -4095,13 +4098,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -4123,19 +4126,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4163,10 +4166,10 @@
         <v>119</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4184,7 +4187,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4205,13 +4208,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4219,10 +4222,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4245,13 +4248,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4302,7 +4305,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4337,10 +4340,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4369,7 +4372,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4422,7 +4425,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4457,10 +4460,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4483,19 +4486,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4544,7 +4547,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4565,10 +4568,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4579,10 +4582,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4605,13 +4608,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4662,7 +4665,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4697,10 +4700,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4729,7 +4732,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4782,7 +4785,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4817,10 +4820,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4846,23 +4849,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4904,7 +4907,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4925,10 +4928,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4939,10 +4942,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4965,16 +4968,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5024,7 +5027,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5045,10 +5048,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -5059,10 +5062,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5088,23 +5091,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -5146,7 +5149,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5167,10 +5170,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5181,10 +5184,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5207,19 +5210,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5268,7 +5271,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5289,10 +5292,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5303,10 +5306,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5329,19 +5332,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5390,7 +5393,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5411,10 +5414,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5425,10 +5428,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5451,19 +5454,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5512,7 +5515,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5533,10 +5536,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5547,13 +5550,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5575,19 +5578,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5615,10 +5618,10 @@
         <v>119</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5636,7 +5639,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5657,13 +5660,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5671,10 +5674,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5697,13 +5700,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5754,7 +5757,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5789,10 +5792,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5821,7 +5824,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5874,7 +5877,7 @@
         <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5909,10 +5912,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5935,19 +5938,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5996,7 +5999,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6017,10 +6020,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6031,10 +6034,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6057,13 +6060,13 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6114,7 +6117,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6149,10 +6152,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6181,7 +6184,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -6234,7 +6237,7 @@
         <v>146</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6269,10 +6272,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6298,23 +6301,23 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6356,7 +6359,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6377,10 +6380,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6391,10 +6394,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6417,16 +6420,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6476,7 +6479,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6497,10 +6500,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6511,10 +6514,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6540,23 +6543,23 @@
         <v>115</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6598,7 +6601,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6619,10 +6622,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6633,10 +6636,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6659,19 +6662,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6720,7 +6723,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6741,10 +6744,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6755,10 +6758,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6781,19 +6784,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6842,7 +6845,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6863,10 +6866,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6877,10 +6880,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6903,19 +6906,19 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6964,7 +6967,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6985,10 +6988,10 @@
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6999,13 +7002,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7027,19 +7030,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7067,10 +7070,10 @@
         <v>119</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -7088,7 +7091,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -7109,13 +7112,13 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7123,10 +7126,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7149,13 +7152,13 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -7206,7 +7209,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7241,10 +7244,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7273,7 +7276,7 @@
         <v>141</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>143</v>
@@ -7326,7 +7329,7 @@
         <v>146</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7361,10 +7364,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7387,19 +7390,19 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7448,7 +7451,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7469,10 +7472,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7483,10 +7486,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7509,13 +7512,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7566,7 +7569,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7601,10 +7604,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7633,7 +7636,7 @@
         <v>141</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>143</v>
@@ -7686,7 +7689,7 @@
         <v>146</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7721,10 +7724,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7750,23 +7753,23 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>82</v>
@@ -7808,7 +7811,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7829,10 +7832,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7843,10 +7846,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7869,16 +7872,16 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7928,7 +7931,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7949,10 +7952,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7963,10 +7966,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7992,23 +7995,23 @@
         <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8050,7 +8053,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8071,10 +8074,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8085,10 +8088,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8111,19 +8114,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8172,7 +8175,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8193,10 +8196,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8207,10 +8210,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8233,19 +8236,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8294,7 +8297,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8315,10 +8318,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8329,10 +8332,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8355,19 +8358,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8416,7 +8419,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8437,10 +8440,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8451,13 +8454,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8479,19 +8482,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8519,10 +8522,10 @@
         <v>119</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8540,7 +8543,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8561,13 +8564,13 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8575,10 +8578,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8601,13 +8604,13 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8658,7 +8661,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8693,10 +8696,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8725,7 +8728,7 @@
         <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>143</v>
@@ -8778,7 +8781,7 @@
         <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8813,10 +8816,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8839,19 +8842,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8900,7 +8903,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8921,10 +8924,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8935,10 +8938,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8961,13 +8964,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9018,7 +9021,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9053,10 +9056,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9085,7 +9088,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -9138,7 +9141,7 @@
         <v>146</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9173,10 +9176,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9202,23 +9205,23 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9260,7 +9263,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9281,10 +9284,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9295,10 +9298,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9321,16 +9324,16 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9380,7 +9383,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9401,10 +9404,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9415,10 +9418,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9444,23 +9447,23 @@
         <v>115</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S60" t="s" s="2">
         <v>82</v>
@@ -9502,7 +9505,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9523,10 +9526,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9537,10 +9540,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9563,19 +9566,19 @@
         <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9624,7 +9627,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9645,10 +9648,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9659,10 +9662,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9685,19 +9688,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9746,7 +9749,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9767,10 +9770,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9781,10 +9784,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9807,19 +9810,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9868,7 +9871,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9889,10 +9892,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9903,13 +9906,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>82</v>
@@ -9931,19 +9934,19 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9971,10 +9974,10 @@
         <v>119</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9992,7 +9995,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10013,13 +10016,13 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>82</v>
@@ -10027,10 +10030,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10053,13 +10056,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10110,7 +10113,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10145,10 +10148,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10177,7 +10180,7 @@
         <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>143</v>
@@ -10230,7 +10233,7 @@
         <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10265,10 +10268,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10291,19 +10294,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10352,7 +10355,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10373,10 +10376,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10387,10 +10390,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10413,13 +10416,13 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10470,7 +10473,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10505,10 +10508,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10537,7 +10540,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10590,7 +10593,7 @@
         <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10625,10 +10628,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10654,23 +10657,23 @@
         <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10712,7 +10715,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10733,10 +10736,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10747,10 +10750,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10773,16 +10776,16 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10832,7 +10835,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10853,10 +10856,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10867,10 +10870,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10896,23 +10899,23 @@
         <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -10954,7 +10957,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10975,10 +10978,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -10989,10 +10992,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11015,19 +11018,19 @@
         <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11076,7 +11079,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11097,10 +11100,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11111,10 +11114,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11137,19 +11140,19 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11198,7 +11201,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11219,10 +11222,10 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11233,10 +11236,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11259,19 +11262,19 @@
         <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11320,7 +11323,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11341,10 +11344,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11355,13 +11358,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
@@ -11383,19 +11386,19 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11423,10 +11426,10 @@
         <v>119</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11444,7 +11447,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11465,13 +11468,13 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11479,10 +11482,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11505,13 +11508,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11562,7 +11565,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11597,10 +11600,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11629,7 +11632,7 @@
         <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>143</v>
@@ -11682,7 +11685,7 @@
         <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11717,10 +11720,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11743,19 +11746,19 @@
         <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11804,7 +11807,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11825,10 +11828,10 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
@@ -11839,10 +11842,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11865,13 +11868,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11922,7 +11925,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11957,10 +11960,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11989,7 +11992,7 @@
         <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N81" t="s" s="2">
         <v>143</v>
@@ -12042,7 +12045,7 @@
         <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12077,10 +12080,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12106,23 +12109,23 @@
         <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12164,7 +12167,7 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -12185,10 +12188,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12199,10 +12202,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12225,16 +12228,16 @@
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12284,7 +12287,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12305,10 +12308,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12319,10 +12322,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12348,23 +12351,23 @@
         <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12406,7 +12409,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12427,10 +12430,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12441,10 +12444,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12467,19 +12470,19 @@
         <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12528,7 +12531,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12549,10 +12552,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12563,10 +12566,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12589,19 +12592,19 @@
         <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12650,7 +12653,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12671,10 +12674,10 @@
         <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12685,10 +12688,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12711,19 +12714,19 @@
         <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12772,7 +12775,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12793,10 +12796,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12807,14 +12810,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12833,19 +12836,19 @@
         <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12870,13 +12873,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12894,7 +12897,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>92</v>
@@ -12909,30 +12912,30 @@
         <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12955,19 +12958,19 @@
         <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
@@ -13016,7 +13019,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13031,19 +13034,19 @@
         <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -13051,10 +13054,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13077,16 +13080,16 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13136,7 +13139,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13157,13 +13160,13 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13171,14 +13174,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13197,19 +13200,19 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -13258,7 +13261,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13273,19 +13276,19 @@
         <v>170</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13293,14 +13296,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13319,19 +13322,19 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13380,7 +13383,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13395,19 +13398,19 @@
         <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13415,10 +13418,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13441,16 +13444,16 @@
         <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13500,7 +13503,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13521,13 +13524,13 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13535,10 +13538,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13561,19 +13564,19 @@
         <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13622,7 +13625,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13637,19 +13640,19 @@
         <v>170</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>82</v>
@@ -13657,10 +13660,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13683,19 +13686,19 @@
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13744,7 +13747,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13753,7 +13756,7 @@
         <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>105</v>
@@ -13762,27 +13765,27 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13805,19 +13808,19 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13842,13 +13845,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13866,7 +13869,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13875,7 +13878,7 @@
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13890,7 +13893,7 @@
         <v>106</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>82</v>
@@ -13901,14 +13904,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13927,19 +13930,19 @@
         <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13964,13 +13967,13 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
@@ -13988,7 +13991,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -14006,27 +14009,27 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14049,19 +14052,19 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14110,7 +14113,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14131,10 +14134,10 @@
         <v>82</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
@@ -14145,10 +14148,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14171,16 +14174,16 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14206,13 +14209,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14230,7 +14233,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14248,27 +14251,27 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14291,19 +14294,19 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14328,13 +14331,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14352,7 +14355,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14373,10 +14376,10 @@
         <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
@@ -14387,10 +14390,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14413,16 +14416,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14472,7 +14475,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14490,27 +14493,27 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14533,16 +14536,16 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14592,7 +14595,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14610,27 +14613,27 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14653,19 +14656,19 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -14714,7 +14717,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14726,7 +14729,7 @@
         <v>104</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>82</v>
@@ -14735,10 +14738,10 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14749,10 +14752,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14775,13 +14778,13 @@
         <v>82</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14832,7 +14835,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14867,10 +14870,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14899,7 +14902,7 @@
         <v>141</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>143</v>
@@ -14952,7 +14955,7 @@
         <v>146</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -14987,14 +14990,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15016,10 +15019,10 @@
         <v>140</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N106" t="s" s="2">
         <v>143</v>
@@ -15074,7 +15077,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15109,10 +15112,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15135,16 +15138,16 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15194,7 +15197,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>80</v>
@@ -15203,10 +15206,10 @@
         <v>92</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>82</v>
@@ -15215,10 +15218,10 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>82</v>
@@ -15229,10 +15232,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15255,16 +15258,16 @@
         <v>82</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15314,7 +15317,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -15323,10 +15326,10 @@
         <v>92</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>82</v>
@@ -15335,10 +15338,10 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -15349,10 +15352,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15375,19 +15378,19 @@
         <v>82</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15415,10 +15418,10 @@
         <v>119</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>82</v>
@@ -15436,7 +15439,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -15454,13 +15457,13 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>82</v>
@@ -15471,10 +15474,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15497,19 +15500,19 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15534,13 +15537,13 @@
         <v>82</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>82</v>
@@ -15558,7 +15561,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>80</v>
@@ -15576,13 +15579,13 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>82</v>
@@ -15593,10 +15596,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15619,19 +15622,19 @@
         <v>82</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>82</v>
@@ -15680,7 +15683,7 @@
         <v>82</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>80</v>
@@ -15692,7 +15695,7 @@
         <v>104</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>82</v>
@@ -15701,10 +15704,10 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>82</v>
@@ -15715,10 +15718,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15741,16 +15744,16 @@
         <v>82</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15800,7 +15803,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -15821,10 +15824,10 @@
         <v>82</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>82</v>
@@ -15835,10 +15838,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15861,16 +15864,16 @@
         <v>93</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15920,7 +15923,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -15941,10 +15944,10 @@
         <v>82</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>82</v>
@@ -15955,10 +15958,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15981,16 +15984,16 @@
         <v>93</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -16040,7 +16043,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -16061,10 +16064,10 @@
         <v>82</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>82</v>
@@ -16075,10 +16078,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16101,19 +16104,19 @@
         <v>93</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -16162,7 +16165,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -16183,10 +16186,10 @@
         <v>82</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>82</v>
@@ -16197,10 +16200,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16223,13 +16226,13 @@
         <v>82</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16280,7 +16283,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -16315,10 +16318,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16347,7 +16350,7 @@
         <v>141</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>143</v>
@@ -16400,7 +16403,7 @@
         <v>146</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -16435,14 +16438,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -16464,10 +16467,10 @@
         <v>140</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>143</v>
@@ -16522,7 +16525,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -16557,10 +16560,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16583,19 +16586,19 @@
         <v>93</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -16620,13 +16623,13 @@
         <v>82</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z119" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>82</v>
@@ -16644,7 +16647,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>92</v>
@@ -16662,16 +16665,16 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -16679,10 +16682,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16705,19 +16708,19 @@
         <v>93</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>82</v>
@@ -16766,7 +16769,7 @@
         <v>82</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>80</v>
@@ -16784,27 +16787,27 @@
         <v>82</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP120" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16827,19 +16830,19 @@
         <v>82</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>82</v>
@@ -16864,13 +16867,13 @@
         <v>82</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>82</v>
@@ -16888,7 +16891,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>80</v>
@@ -16897,7 +16900,7 @@
         <v>92</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>105</v>
@@ -16912,7 +16915,7 @@
         <v>106</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>82</v>
@@ -16923,14 +16926,14 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16949,19 +16952,19 @@
         <v>82</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>82</v>
@@ -16986,13 +16989,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -17010,7 +17013,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>80</v>
@@ -17028,27 +17031,27 @@
         <v>82</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17074,16 +17077,16 @@
         <v>83</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -17132,7 +17135,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -17153,10 +17156,10 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cde-tobacco-smoking-status-yes-or-no</t>
+    <t>http://fhir.org/de/StructureDefinition/cde-tobacco-smoking-status-yes-or-no</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cde-tobacco-smoking-status-yes-or-no</t>
+    <t>http://hl7.org/de/StructureDefinition/cde-tobacco-smoking-status-yes-or-no</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-snomed-finding-of-tobacco-use-and-exposure</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4114,7 +4114,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -5566,7 +5566,7 @@
         <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>93</v>
@@ -7018,7 +7018,7 @@
         <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>93</v>
@@ -8470,7 +8470,7 @@
         <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>93</v>
@@ -9922,7 +9922,7 @@
         <v>92</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>93</v>
@@ -11374,7 +11374,7 @@
         <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>93</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>92</v>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
+++ b/output/StructureDefinition-cde-tobacco-smoking-status-yes-or-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
